--- a/Projects/CCRU_SAND/Data/KPIs_2019/Gaps Guide 2019.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/Gaps Guide 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="1" state="visible" r:id="rId2"/>
@@ -941,7 +941,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,6 +952,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1021,7 +1027,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1074,6 +1080,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1082,11 +1096,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,11 +1136,19 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1134,19 +1156,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="1" xfId="15" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="15" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,11 +1176,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,7 +1204,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,7 +1212,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1306,9 +1320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1322,7 +1336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="17886960" cy="2216880"/>
+          <a:ext cx="17886600" cy="2216520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1348,9 +1362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1360,7 +1374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13787280" cy="9621000"/>
+          <a:ext cx="13863240" cy="9620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1390,9 +1404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1402,7 +1416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13787280" cy="9621000"/>
+          <a:ext cx="13863240" cy="9620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,9 +1446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1444,7 +1458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13787280" cy="9621000"/>
+          <a:ext cx="13863240" cy="9620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1474,9 +1488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1486,7 +1500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13579200" cy="9127800"/>
+          <a:ext cx="13655160" cy="9127440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,9 +1530,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1528,7 +1542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13579200" cy="9127800"/>
+          <a:ext cx="13655160" cy="9127440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,9 +1572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291960</xdr:colOff>
+      <xdr:colOff>291600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1570,7 +1584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13579200" cy="9127800"/>
+          <a:ext cx="13655160" cy="9127440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,9 +1614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1612,7 +1626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13522320" cy="9128160"/>
+          <a:ext cx="13598280" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1645,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1657,7 +1671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13522320" cy="9128160"/>
+          <a:ext cx="13598280" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1690,9 +1704,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>235080</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1702,7 +1716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13522320" cy="9128160"/>
+          <a:ext cx="13598280" cy="9127800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1740,9 +1754,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1752,7 +1766,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8413920"/>
+          <a:ext cx="13388040" cy="8413560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1794,7 +1808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8413920"/>
+          <a:ext cx="13388040" cy="8413560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,9 +1838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1836,7 +1850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8413920"/>
+          <a:ext cx="13388040" cy="8413560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1866,9 +1880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1878,7 +1892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8251560"/>
+          <a:ext cx="13331160" cy="8251200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,9 +1925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1923,7 +1937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8251560"/>
+          <a:ext cx="13331160" cy="8251200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1956,9 +1970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1968,7 +1982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8251560"/>
+          <a:ext cx="13331160" cy="8251200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2006,9 +2020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2018,7 +2032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2048,9 +2062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2060,7 +2074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2090,9 +2104,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2102,7 +2116,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2132,9 +2146,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2144,7 +2158,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2177,9 +2191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2189,7 +2203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2222,9 +2236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2234,7 +2248,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,9 +2286,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2284,7 +2298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,9 +2328,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2326,7 +2340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2368,7 +2382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302720" cy="8385840"/>
+          <a:ext cx="13388040" cy="8385480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2398,9 +2412,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2410,7 +2424,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2443,9 +2457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2455,7 +2469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2488,9 +2502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>768240</xdr:colOff>
+      <xdr:colOff>767880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2500,7 +2514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245840" cy="8548200"/>
+          <a:ext cx="13331160" cy="8547840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2538,9 +2552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2550,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2580,9 +2594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2592,7 +2606,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2622,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2634,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2664,9 +2678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2676,7 +2690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2709,9 +2723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2721,7 +2735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2754,9 +2768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2766,7 +2780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2804,9 +2818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2816,7 +2830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2846,9 +2860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2858,7 +2872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2888,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2930,9 +2944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2942,7 +2956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2975,9 +2989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2987,7 +3001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3020,9 +3034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3032,7 +3046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3070,9 +3084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3082,7 +3096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3112,9 +3126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3124,7 +3138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3154,9 +3168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3166,7 +3180,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3196,9 +3210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3208,7 +3222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3241,9 +3255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3253,7 +3267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3286,9 +3300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3298,7 +3312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3336,9 +3350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3348,7 +3362,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3378,9 +3392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3390,7 +3404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3420,9 +3434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3432,7 +3446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13302360" cy="9520920"/>
+          <a:ext cx="13387680" cy="9520560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3462,9 +3476,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3474,7 +3488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3507,9 +3521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3519,7 +3533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3552,9 +3566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>767880</xdr:colOff>
+      <xdr:colOff>767520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3564,7 +3578,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13245480" cy="9521280"/>
+          <a:ext cx="13330800" cy="9520920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3626,19 +3640,19 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="20" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.4898785425101"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
@@ -3672,10 +3686,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3698,19 +3712,19 @@
       <c r="F2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="18" t="n">
+      <c r="I2" s="20" t="n">
         <v>0.12</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3733,19 +3747,19 @@
       <c r="F3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="18" t="n">
+      <c r="I3" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3768,19 +3782,19 @@
       <c r="F4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3803,89 +3817,89 @@
       <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="19" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="C6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="19" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3913,15 +3927,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="23" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -3951,7 +3965,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -3974,19 +3988,19 @@
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="24" t="n">
+      <c r="I2" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -3997,70 +4011,70 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="27" t="n">
+      <c r="I3" s="29" t="n">
         <v>0.025</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="29" t="n">
         <v>0.0175</v>
       </c>
-      <c r="J4" s="25" t="n">
+      <c r="J4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -4075,19 +4089,19 @@
       <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -4110,19 +4124,19 @@
       <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -4145,19 +4159,19 @@
       <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -4192,7 +4206,7 @@
       <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="26" t="n">
         <v>0.1275</v>
       </c>
       <c r="J8" s="6" t="n">
@@ -4221,13 +4235,13 @@
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J9" s="6" t="n">
@@ -4256,13 +4270,13 @@
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J10" s="6" t="n">
@@ -4291,13 +4305,13 @@
       <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J11" s="6" t="n">
@@ -4326,13 +4340,13 @@
       <c r="F12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="29" t="n">
+      <c r="I12" s="31" t="n">
         <v>0.02</v>
       </c>
       <c r="J12" s="6" t="n">
@@ -4361,13 +4375,13 @@
       <c r="F13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="29" t="n">
+      <c r="I13" s="31" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="6" t="n">
@@ -4396,13 +4410,13 @@
       <c r="F14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="29" t="n">
+      <c r="I14" s="31" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="6" t="n">
@@ -4413,72 +4427,72 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="30" t="n">
+      <c r="I15" s="32" t="n">
         <v>0.02</v>
       </c>
-      <c r="J15" s="25" t="n">
+      <c r="J15" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="25" t="n">
+      <c r="K15" s="27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="30" t="n">
+      <c r="I16" s="32" t="n">
         <v>0.03</v>
       </c>
-      <c r="J16" s="25" t="n">
+      <c r="J16" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="K16" s="25" t="n">
+      <c r="K16" s="27" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4508,15 +4522,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4568,19 +4582,19 @@
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="24" t="n">
+      <c r="I2" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -4592,70 +4606,70 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="27" t="n">
+      <c r="I3" s="29" t="n">
         <v>0.025</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="29" t="n">
         <v>0.0175</v>
       </c>
-      <c r="J4" s="25" t="n">
+      <c r="J4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -4670,19 +4684,19 @@
       <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="24" t="n">
+      <c r="I5" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -4705,19 +4719,19 @@
       <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="24" t="n">
+      <c r="I6" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -4740,19 +4754,19 @@
       <c r="D7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="24" t="n">
+      <c r="I7" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -4787,7 +4801,7 @@
       <c r="H8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="24" t="n">
+      <c r="I8" s="26" t="n">
         <v>0.1275</v>
       </c>
       <c r="J8" s="6" t="n">
@@ -4816,13 +4830,13 @@
       <c r="F9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="24" t="n">
+      <c r="I9" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J9" s="6" t="n">
@@ -4851,13 +4865,13 @@
       <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="24" t="n">
+      <c r="I10" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J10" s="6" t="n">
@@ -4886,13 +4900,13 @@
       <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="24" t="n">
+      <c r="I11" s="26" t="n">
         <v>0.0425</v>
       </c>
       <c r="J11" s="6" t="n">
@@ -4921,13 +4935,13 @@
       <c r="F12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="29" t="n">
+      <c r="I12" s="31" t="n">
         <v>0.02</v>
       </c>
       <c r="J12" s="6" t="n">
@@ -4956,13 +4970,13 @@
       <c r="F13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="29" t="n">
+      <c r="I13" s="31" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="6" t="n">
@@ -4991,13 +5005,13 @@
       <c r="F14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="29" t="n">
+      <c r="I14" s="31" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="6" t="n">
@@ -5008,72 +5022,72 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="30" t="n">
+      <c r="I15" s="32" t="n">
         <v>0.02</v>
       </c>
-      <c r="J15" s="25" t="n">
+      <c r="J15" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="K15" s="25" t="n">
+      <c r="K15" s="27" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="30" t="n">
+      <c r="I16" s="32" t="n">
         <v>0.03</v>
       </c>
-      <c r="J16" s="25" t="n">
+      <c r="J16" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="K16" s="25" t="n">
+      <c r="K16" s="27" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5103,15 +5117,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5176,7 +5190,7 @@
       <c r="H2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="31" t="n">
+      <c r="I2" s="33" t="n">
         <v>0.05</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -5211,7 +5225,7 @@
       <c r="H3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="32" t="n">
+      <c r="I3" s="34" t="n">
         <v>0.28</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -5246,7 +5260,7 @@
       <c r="H4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="31" t="n">
+      <c r="I4" s="33" t="n">
         <v>0.07</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -5281,7 +5295,7 @@
       <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="32" t="n">
+      <c r="I5" s="34" t="n">
         <v>0.08</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -5310,13 +5324,13 @@
       <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="35" t="n">
         <v>0.04</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -5345,13 +5359,13 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I7" s="35" t="n">
         <v>0.04</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -5380,13 +5394,13 @@
       <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="33" t="n">
+      <c r="I8" s="35" t="n">
         <v>0.04</v>
       </c>
       <c r="J8" s="6" t="n">
@@ -5420,15 +5434,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.4574898785425"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -5481,19 +5495,19 @@
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="35" t="n">
+      <c r="I2" s="37" t="n">
         <v>0.09</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -5504,37 +5518,37 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="36" t="n">
+      <c r="I3" s="38" t="n">
         <v>0.01</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="25" t="n">
+      <c r="K3" s="27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5563,7 +5577,7 @@
       <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="37" t="n">
+      <c r="I4" s="39" t="n">
         <v>0.135</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -5592,13 +5606,13 @@
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -5627,13 +5641,13 @@
       <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="37" t="n">
+      <c r="I6" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -5662,13 +5676,13 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="37" t="n">
+      <c r="I7" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -5702,15 +5716,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5762,19 +5776,19 @@
       <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="35" t="n">
+      <c r="I2" s="37" t="n">
         <v>0.09</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -5785,37 +5799,37 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="36" t="n">
+      <c r="I3" s="38" t="n">
         <v>0.01</v>
       </c>
-      <c r="J3" s="25" t="n">
+      <c r="J3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="25" t="n">
+      <c r="K3" s="27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5844,7 +5858,7 @@
       <c r="H4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="37" t="n">
+      <c r="I4" s="39" t="n">
         <v>0.135</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -5873,13 +5887,13 @@
       <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -5908,13 +5922,13 @@
       <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="37" t="n">
+      <c r="I6" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -5943,13 +5957,13 @@
       <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="37" t="n">
+      <c r="I7" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -5983,15 +5997,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="38" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="40" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="34.919028340081"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -6021,7 +6035,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -6050,13 +6064,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="n">
+      <c r="I2" s="42" t="n">
         <v>0.04</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -6085,13 +6099,13 @@
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="40" t="n">
+      <c r="I3" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -6120,13 +6134,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="40" t="n">
+      <c r="I4" s="42" t="n">
         <v>0.02</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -6155,13 +6169,13 @@
       <c r="F5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="40" t="n">
+      <c r="I5" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -6190,13 +6204,13 @@
       <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="44" t="n">
         <v>0.035</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -6225,13 +6239,13 @@
       <c r="F7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="44" t="n">
         <v>0.02</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -6260,13 +6274,13 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="44" t="n">
         <v>0.025</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -6295,13 +6309,13 @@
       <c r="F9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -6330,13 +6344,13 @@
       <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -6365,13 +6379,13 @@
       <c r="F11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="40" t="n">
+      <c r="I11" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -6400,13 +6414,13 @@
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -6435,13 +6449,13 @@
       <c r="F13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="43" t="n">
+      <c r="I13" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -6470,13 +6484,13 @@
       <c r="F14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -6505,13 +6519,13 @@
       <c r="F15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="43" t="n">
+      <c r="I15" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -6546,7 +6560,7 @@
       <c r="H16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>0.065</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -6581,7 +6595,7 @@
       <c r="H17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -6616,7 +6630,7 @@
       <c r="H18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
@@ -6651,7 +6665,7 @@
       <c r="H19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
@@ -6686,7 +6700,7 @@
       <c r="H20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="40" t="n">
+      <c r="I20" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J20" s="9" t="n">
@@ -6721,7 +6735,7 @@
       <c r="H21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="43" t="n">
+      <c r="I21" s="45" t="n">
         <v>0.03</v>
       </c>
       <c r="J21" s="9" t="n">
@@ -6759,15 +6773,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6796,7 +6810,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -6825,13 +6839,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="n">
+      <c r="I2" s="42" t="n">
         <v>0.04</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -6860,13 +6874,13 @@
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="40" t="n">
+      <c r="I3" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -6895,13 +6909,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="40" t="n">
+      <c r="I4" s="42" t="n">
         <v>0.02</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -6930,13 +6944,13 @@
       <c r="F5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="40" t="n">
+      <c r="I5" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -6965,13 +6979,13 @@
       <c r="F6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="44" t="n">
         <v>0.035</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -7000,13 +7014,13 @@
       <c r="F7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="44" t="n">
         <v>0.02</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -7035,13 +7049,13 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>103</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="44" t="n">
         <v>0.025</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -7070,13 +7084,13 @@
       <c r="F9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -7105,13 +7119,13 @@
       <c r="F10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -7140,13 +7154,13 @@
       <c r="F11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="40" t="n">
+      <c r="I11" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -7175,13 +7189,13 @@
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -7210,13 +7224,13 @@
       <c r="F13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="43" t="n">
+      <c r="I13" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -7245,13 +7259,13 @@
       <c r="F14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -7280,13 +7294,13 @@
       <c r="F15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="43" t="n">
+      <c r="I15" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -7321,7 +7335,7 @@
       <c r="H16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>0.065</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -7356,7 +7370,7 @@
       <c r="H17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -7391,7 +7405,7 @@
       <c r="H18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
@@ -7426,7 +7440,7 @@
       <c r="H19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
@@ -7461,7 +7475,7 @@
       <c r="H20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="40" t="n">
+      <c r="I20" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J20" s="9" t="n">
@@ -7496,7 +7510,7 @@
       <c r="H21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="43" t="n">
+      <c r="I21" s="45" t="n">
         <v>0.03</v>
       </c>
       <c r="J21" s="9" t="n">
@@ -7532,15 +7546,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7569,7 +7583,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -7598,13 +7612,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -7633,13 +7647,13 @@
       <c r="F3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="44" t="n">
+      <c r="I3" s="46" t="n">
         <v>0.03</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -7668,13 +7682,13 @@
       <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="35" t="n">
+      <c r="I4" s="37" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -7703,13 +7717,13 @@
       <c r="F5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="44" t="n">
+      <c r="I5" s="46" t="n">
         <v>0.015</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -7738,13 +7752,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="47" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -7776,10 +7790,10 @@
       <c r="G7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="46" t="n">
+      <c r="I7" s="48" t="n">
         <v>0.03</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -7808,13 +7822,13 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="37" t="n">
         <v>0.035</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -7849,7 +7863,7 @@
       <c r="H9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -7878,13 +7892,13 @@
       <c r="F10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -7913,13 +7927,13 @@
       <c r="F11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="44" t="n">
         <v>0.015</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -7948,13 +7962,13 @@
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -7983,13 +7997,13 @@
       <c r="F13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="43" t="n">
+      <c r="I13" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -8018,13 +8032,13 @@
       <c r="F14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -8059,7 +8073,7 @@
       <c r="H15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="40" t="n">
+      <c r="I15" s="42" t="n">
         <v>0.065</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -8094,7 +8108,7 @@
       <c r="H16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -8129,7 +8143,7 @@
       <c r="H17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -8164,7 +8178,7 @@
       <c r="H18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
@@ -8199,7 +8213,7 @@
       <c r="H19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
@@ -8228,13 +8242,13 @@
       <c r="F20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="43" t="n">
+      <c r="I20" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J20" s="9" t="n">
@@ -8270,15 +8284,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8307,7 +8321,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -8336,13 +8350,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="39" t="n">
         <v>0.045</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -8371,13 +8385,13 @@
       <c r="F3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="44" t="n">
+      <c r="I3" s="46" t="n">
         <v>0.03</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -8406,13 +8420,13 @@
       <c r="F4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="35" t="n">
+      <c r="I4" s="37" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -8441,13 +8455,13 @@
       <c r="F5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="44" t="n">
+      <c r="I5" s="46" t="n">
         <v>0.015</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -8476,13 +8490,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="47" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -8514,10 +8528,10 @@
       <c r="G7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="46" t="n">
+      <c r="I7" s="48" t="n">
         <v>0.03</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -8546,13 +8560,13 @@
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="35" t="n">
+      <c r="I8" s="37" t="n">
         <v>0.035</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -8587,7 +8601,7 @@
       <c r="H9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="40" t="n">
+      <c r="I9" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -8616,13 +8630,13 @@
       <c r="F10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="40" t="n">
+      <c r="I10" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -8651,13 +8665,13 @@
       <c r="F11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="44" t="n">
         <v>0.015</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -8686,13 +8700,13 @@
       <c r="F12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="43" t="n">
+      <c r="I12" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -8721,13 +8735,13 @@
       <c r="F13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="43" t="n">
+      <c r="I13" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -8756,13 +8770,13 @@
       <c r="F14" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="43" t="n">
+      <c r="I14" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -8797,7 +8811,7 @@
       <c r="H15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="40" t="n">
+      <c r="I15" s="42" t="n">
         <v>0.065</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -8832,7 +8846,7 @@
       <c r="H16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="40" t="n">
+      <c r="I16" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -8867,7 +8881,7 @@
       <c r="H17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="40" t="n">
+      <c r="I17" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -8902,7 +8916,7 @@
       <c r="H18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="40" t="n">
+      <c r="I18" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J18" s="9" t="n">
@@ -8937,7 +8951,7 @@
       <c r="H19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="40" t="n">
+      <c r="I19" s="42" t="n">
         <v>0.01625</v>
       </c>
       <c r="J19" s="9" t="n">
@@ -8966,13 +8980,13 @@
       <c r="F20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="43" t="n">
+      <c r="I20" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J20" s="9" t="n">
@@ -9003,20 +9017,20 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -9579,15 +9593,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9616,7 +9630,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -9645,13 +9659,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="40" t="n">
+      <c r="I2" s="42" t="n">
         <v>0.04</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -9680,13 +9694,13 @@
       <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.04</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -9715,13 +9729,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="37" t="n">
+      <c r="I4" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -9750,13 +9764,13 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -9785,13 +9799,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -9820,13 +9834,13 @@
       <c r="F7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.02</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -9861,7 +9875,7 @@
       <c r="H8" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="40" t="n">
+      <c r="I8" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -9890,13 +9904,13 @@
       <c r="F9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -9925,13 +9939,13 @@
       <c r="F10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -9960,13 +9974,13 @@
       <c r="F11" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I11" s="43" t="n">
+      <c r="I11" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -10001,7 +10015,7 @@
       <c r="H12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="39" t="n">
         <v>0.14</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -10036,7 +10050,7 @@
       <c r="H13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -10071,7 +10085,7 @@
       <c r="H14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -10106,7 +10120,7 @@
       <c r="H15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -10141,7 +10155,7 @@
       <c r="H16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="37" t="n">
+      <c r="I16" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -10170,13 +10184,13 @@
       <c r="F17" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="43" t="n">
+      <c r="I17" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J17" s="9" t="n">
@@ -10212,15 +10226,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10249,7 +10263,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -10278,13 +10292,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="47" t="n">
+      <c r="I2" s="49" t="n">
         <v>0.05</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -10313,13 +10327,13 @@
       <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.04</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -10348,13 +10362,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="47" t="n">
+      <c r="I4" s="49" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -10383,13 +10397,13 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -10418,13 +10432,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -10459,7 +10473,7 @@
       <c r="H7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -10488,13 +10502,13 @@
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="43" t="n">
+      <c r="I8" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -10523,13 +10537,13 @@
       <c r="F9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -10558,13 +10572,13 @@
       <c r="F10" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -10599,7 +10613,7 @@
       <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="37" t="n">
+      <c r="I11" s="39" t="n">
         <v>0.14</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -10634,7 +10648,7 @@
       <c r="H12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -10669,7 +10683,7 @@
       <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -10704,7 +10718,7 @@
       <c r="H14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -10739,7 +10753,7 @@
       <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -10768,13 +10782,13 @@
       <c r="F16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="43" t="n">
+      <c r="I16" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -10810,15 +10824,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="48" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="50" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10847,7 +10861,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -10876,13 +10890,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="39" t="n">
         <v>0.05</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -10911,13 +10925,13 @@
       <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.04</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -10946,13 +10960,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="49" t="n">
+      <c r="I4" s="51" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -10981,13 +10995,13 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -11016,13 +11030,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -11057,7 +11071,7 @@
       <c r="H7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -11086,13 +11100,13 @@
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="43" t="n">
+      <c r="I8" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -11121,13 +11135,13 @@
       <c r="F9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -11156,13 +11170,13 @@
       <c r="F10" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -11197,7 +11211,7 @@
       <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="37" t="n">
+      <c r="I11" s="39" t="n">
         <v>0.14</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -11232,7 +11246,7 @@
       <c r="H12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -11267,7 +11281,7 @@
       <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -11302,7 +11316,7 @@
       <c r="H14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -11337,7 +11351,7 @@
       <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -11366,13 +11380,13 @@
       <c r="F16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="43" t="n">
+      <c r="I16" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -11408,15 +11422,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11445,7 +11459,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -11474,13 +11488,13 @@
       <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="37" t="n">
+      <c r="I2" s="39" t="n">
         <v>0.05</v>
       </c>
       <c r="J2" s="9" t="n">
@@ -11509,13 +11523,13 @@
       <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="43" t="n">
+      <c r="I3" s="45" t="n">
         <v>0.04</v>
       </c>
       <c r="J3" s="9" t="n">
@@ -11544,13 +11558,13 @@
       <c r="F4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="49" t="n">
+      <c r="I4" s="51" t="n">
         <v>0.04</v>
       </c>
       <c r="J4" s="9" t="n">
@@ -11579,13 +11593,13 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="37" t="n">
+      <c r="I5" s="39" t="n">
         <v>0.03</v>
       </c>
       <c r="J5" s="9" t="n">
@@ -11614,13 +11628,13 @@
       <c r="F6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="42" t="n">
         <v>0.03</v>
       </c>
       <c r="J6" s="9" t="n">
@@ -11655,7 +11669,7 @@
       <c r="H7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="42" t="n">
         <v>0.01</v>
       </c>
       <c r="J7" s="9" t="n">
@@ -11684,13 +11698,13 @@
       <c r="F8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="30" t="s">
         <v>113</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="43" t="n">
+      <c r="I8" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J8" s="9" t="n">
@@ -11719,13 +11733,13 @@
       <c r="F9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="30" t="s">
         <v>115</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="43" t="n">
+      <c r="I9" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J9" s="9" t="n">
@@ -11754,13 +11768,13 @@
       <c r="F10" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>118</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I10" s="43" t="n">
+      <c r="I10" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J10" s="9" t="n">
@@ -11795,7 +11809,7 @@
       <c r="H11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="37" t="n">
+      <c r="I11" s="39" t="n">
         <v>0.14</v>
       </c>
       <c r="J11" s="9" t="n">
@@ -11830,7 +11844,7 @@
       <c r="H12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J12" s="9" t="n">
@@ -11865,7 +11879,7 @@
       <c r="H13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="37" t="n">
+      <c r="I13" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J13" s="9" t="n">
@@ -11900,7 +11914,7 @@
       <c r="H14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="37" t="n">
+      <c r="I14" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J14" s="9" t="n">
@@ -11935,7 +11949,7 @@
       <c r="H15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="37" t="n">
+      <c r="I15" s="39" t="n">
         <v>0.025</v>
       </c>
       <c r="J15" s="9" t="n">
@@ -11964,13 +11978,13 @@
       <c r="F16" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>121</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="43" t="n">
+      <c r="I16" s="45" t="n">
         <v>0.0075</v>
       </c>
       <c r="J16" s="9" t="n">
@@ -12006,15 +12020,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12526,21 +12540,21 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12579,7 +12593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -12598,11 +12612,11 @@
       <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
+      <c r="H2" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="10" t="n">
         <v>0.15</v>
@@ -12639,7 +12653,7 @@
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="15" t="n">
         <v>0.24</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -12808,20 +12822,20 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="47.9878542510121"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="12" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12860,7 +12874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -12879,11 +12893,11 @@
       <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
+      <c r="H2" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="I2" s="10" t="n">
         <v>0.15</v>
@@ -12920,7 +12934,7 @@
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="15" t="n">
         <v>0.24</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -13095,15 +13109,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1023" min="12" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57085020242915"/>
   </cols>
@@ -13168,7 +13182,7 @@
       <c r="H2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="16" t="n">
         <v>0.166666</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -13203,7 +13217,7 @@
       <c r="H3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="16" t="n">
         <v>0.083333</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -13238,7 +13252,7 @@
       <c r="H4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="16" t="n">
         <v>0.083333</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -13273,7 +13287,7 @@
       <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="16" t="n">
         <v>0.046667</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -13309,15 +13323,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13381,10 +13395,10 @@
       <c r="H2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="16" t="n">
         <v>0.166666</v>
       </c>
-      <c r="J2" s="15" t="n">
+      <c r="J2" s="17" t="n">
         <v>2</v>
       </c>
       <c r="K2" s="6" t="n">
@@ -13416,10 +13430,10 @@
       <c r="H3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="16" t="n">
+      <c r="I3" s="18" t="n">
         <v>0.203333</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="6" t="n">
@@ -13451,10 +13465,10 @@
       <c r="H4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="16" t="n">
         <v>0.083333</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="17" t="n">
         <v>4</v>
       </c>
       <c r="K4" s="6" t="n">
@@ -13486,7 +13500,7 @@
       <c r="H5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="16" t="n">
         <v>0.046667</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -13522,15 +13536,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13562,10 +13576,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13588,19 +13602,19 @@
       <c r="F2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="18" t="n">
+      <c r="I2" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13623,19 +13637,19 @@
       <c r="F3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="18" t="n">
+      <c r="I3" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13658,19 +13672,19 @@
       <c r="F4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13693,19 +13707,19 @@
       <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13728,89 +13742,89 @@
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="16" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="18" t="n">
+      <c r="I6" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="19" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="19" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -13839,15 +13853,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13879,10 +13893,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
@@ -13905,19 +13919,19 @@
       <c r="F2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="18" t="n">
+      <c r="I2" s="20" t="n">
         <v>0.07</v>
       </c>
-      <c r="J2" s="17" t="n">
+      <c r="J2" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K2" s="17" t="n">
+      <c r="K2" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13940,19 +13954,19 @@
       <c r="F3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="18" t="n">
+      <c r="I3" s="20" t="n">
         <v>0.05</v>
       </c>
-      <c r="J3" s="17" t="n">
+      <c r="J3" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="17" t="n">
+      <c r="K3" s="19" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13975,19 +13989,19 @@
       <c r="F4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="18" t="n">
+      <c r="I4" s="20" t="n">
         <v>0.28</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="n">
+      <c r="K4" s="19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14010,19 +14024,19 @@
       <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="I5" s="20" t="n">
         <v>0.08</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="K5" s="19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14045,89 +14059,89 @@
       <c r="F6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="16" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="18" t="n">
+      <c r="I6" s="20" t="n">
         <v>0.04</v>
       </c>
-      <c r="J6" s="17" t="n">
+      <c r="J6" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="17" t="n">
+      <c r="K6" s="19" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J7" s="17" t="n">
+      <c r="J7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="17" t="n">
+      <c r="K7" s="19" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="21" t="n">
         <v>0.04</v>
       </c>
-      <c r="J8" s="17" t="n">
+      <c r="J8" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="K8" s="17" t="n">
+      <c r="K8" s="19" t="n">
         <v>7</v>
       </c>
     </row>
